--- a/data/trans_orig/cron_mort_index-Edad-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{308FB64F-AC2C-4CD8-9864-DB77EDBB9F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45185B11-3AA0-401C-A36B-2B6E87DDB998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FB9E548C-D3D0-4A42-99BE-BE0329565346}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D61E3AA9-C100-4A5C-A33D-B6EEC7FF48A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="414">
   <si>
     <t>Índice de cronicidad física en base a la mortalidad en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -89,7 +89,7 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,08%</t>
+    <t>1,0%</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -101,7 +101,7 @@
     <t>99,8%</t>
   </si>
   <si>
-    <t>98,92%</t>
+    <t>99,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -134,7 +134,7 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,21%</t>
+    <t>1,22%</t>
   </si>
   <si>
     <t>0,48%</t>
@@ -143,1030 +143,1036 @@
     <t>0,14%</t>
   </si>
   <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la mortalidad en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la mortalidad en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
   </si>
   <si>
     <t>14,76%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
   </si>
   <si>
     <t>85,24%</t>
   </si>
   <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la mortalidad en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la mortalidad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
     <t>32,03%</t>
   </si>
   <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
   </si>
   <si>
     <t>28,96%</t>
   </si>
   <si>
-    <t>25,58%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
   </si>
   <si>
     <t>30,28%</t>
   </si>
   <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
   </si>
   <si>
     <t>67,08%</t>
   </si>
   <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
   </si>
   <si>
     <t>70,51%</t>
   </si>
   <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
   </si>
   <si>
     <t>69,03%</t>
   </si>
   <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -1178,52 +1184,46 @@
     <t>8,45%</t>
   </si>
   <si>
-    <t>10,32%</t>
+    <t>10,41%</t>
   </si>
   <si>
     <t>10,16%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
+    <t>9,17%</t>
   </si>
   <si>
     <t>9,76%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
   </si>
   <si>
     <t>89,72%</t>
   </si>
   <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
   </si>
   <si>
     <t>90,11%</t>
   </si>
   <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
   </si>
   <si>
     <t>Índice de cronicidad física en base a la mortalidad en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1244,9 +1244,6 @@
     <t>0,63%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
     <t>99,37%</t>
   </si>
   <si>
@@ -1269,9 +1266,6 @@
   </si>
   <si>
     <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -1698,7 +1692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681F0A1E-E463-4843-8E82-D18640F93B2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D63331E-A44A-4215-A930-F51118F861E7}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2509,10 +2503,10 @@
         <v>72</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -2521,13 +2515,13 @@
         <v>43840</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,13 +2536,13 @@
         <v>496301</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H18" s="7">
         <v>480</v>
@@ -2557,13 +2551,13 @@
         <v>494648</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="M18" s="7">
         <v>942</v>
@@ -2572,13 +2566,13 @@
         <v>990949</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,7 +2628,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -2652,7 +2646,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2697,13 +2691,13 @@
         <v>44335</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H21" s="7">
         <v>48</v>
@@ -2712,13 +2706,13 @@
         <v>49657</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M21" s="7">
         <v>95</v>
@@ -2727,13 +2721,13 @@
         <v>93992</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,13 +2742,13 @@
         <v>342375</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>348</v>
@@ -2763,13 +2757,13 @@
         <v>354329</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>693</v>
@@ -2778,13 +2772,13 @@
         <v>696704</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,7 +2834,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B24" s="5">
         <v>2</v>
@@ -2858,7 +2852,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2888,7 +2882,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2897,13 @@
         <v>99465</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H25" s="7">
         <v>144</v>
@@ -2918,13 +2912,13 @@
         <v>148398</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>250</v>
@@ -2933,13 +2927,13 @@
         <v>247863</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2948,13 @@
         <v>403001</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H26" s="7">
         <v>517</v>
@@ -2969,13 +2963,13 @@
         <v>528444</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>934</v>
@@ -2984,13 +2978,13 @@
         <v>931445</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,7 +3058,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3079,7 +3073,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3094,7 +3088,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3103,13 @@
         <v>185467</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H29" s="7">
         <v>224</v>
@@ -3124,13 +3118,13 @@
         <v>229249</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M29" s="7">
         <v>416</v>
@@ -3139,13 +3133,13 @@
         <v>414716</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3154,13 @@
         <v>3091077</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H30" s="7">
         <v>3073</v>
@@ -3175,28 +3169,28 @@
         <v>3149949</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M30" s="7">
         <v>6095</v>
       </c>
       <c r="N30" s="7">
-        <v>6241024</v>
+        <v>6241025</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,7 +3232,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>23</v>
@@ -3252,7 +3246,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3274,7 +3268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3E19B8-583A-4102-A94A-AF5A1B23F7CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B21414-7DDD-45DF-9534-F35AC1EA4BB9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3291,7 +3285,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3404,37 +3398,37 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,7 +3449,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3464,13 +3458,13 @@
         <v>2044</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3479,13 +3473,13 @@
         <v>4820</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,7 +3497,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>19</v>
@@ -3515,10 +3509,10 @@
         <v>428186</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>21</v>
@@ -3530,13 +3524,13 @@
         <v>879556</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3834,13 @@
         <v>1030</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3855,13 @@
         <v>6941</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -3876,13 +3870,13 @@
         <v>23312</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -3891,13 +3885,13 @@
         <v>30253</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3906,13 @@
         <v>673893</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="H14" s="7">
         <v>646</v>
@@ -3942,13 +3936,13 @@
         <v>1361430</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4091,13 @@
         <v>73306</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4112,13 @@
         <v>582624</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H18" s="7">
         <v>504</v>
@@ -4133,13 +4127,13 @@
         <v>574886</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M18" s="7">
         <v>1022</v>
@@ -4148,13 +4142,13 @@
         <v>1157510</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,7 +4204,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -4222,13 +4216,13 @@
         <v>967</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4237,13 +4231,13 @@
         <v>2058</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4255,10 +4249,10 @@
         <v>163</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,13 +4267,13 @@
         <v>56041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H21" s="7">
         <v>63</v>
@@ -4288,13 +4282,13 @@
         <v>67059</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M21" s="7">
         <v>116</v>
@@ -4303,13 +4297,13 @@
         <v>123101</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,13 +4318,13 @@
         <v>372421</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H22" s="7">
         <v>341</v>
@@ -4339,13 +4333,13 @@
         <v>378683</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M22" s="7">
         <v>680</v>
@@ -4354,13 +4348,13 @@
         <v>751104</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,7 +4410,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B24" s="5">
         <v>2</v>
@@ -4428,13 +4422,13 @@
         <v>7111</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -4443,13 +4437,13 @@
         <v>5657</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -4458,13 +4452,13 @@
         <v>12768</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>55</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4473,13 @@
         <v>169620</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H25" s="7">
         <v>209</v>
@@ -4494,13 +4488,13 @@
         <v>220903</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M25" s="7">
         <v>362</v>
@@ -4509,13 +4503,13 @@
         <v>390524</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,13 +4524,13 @@
         <v>382906</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H26" s="7">
         <v>479</v>
@@ -4545,13 +4539,13 @@
         <v>516414</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M26" s="7">
         <v>824</v>
@@ -4560,13 +4554,13 @@
         <v>899320</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,10 +4631,10 @@
         <v>27</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -4649,13 +4643,13 @@
         <v>7715</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
@@ -4670,7 +4664,7 @@
         <v>33</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +4679,13 @@
         <v>278078</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H29" s="7">
         <v>338</v>
@@ -4700,13 +4694,13 @@
         <v>363390</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M29" s="7">
         <v>594</v>
@@ -4715,13 +4709,13 @@
         <v>641467</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,13 +4730,13 @@
         <v>3139595</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>215</v>
+        <v>282</v>
       </c>
       <c r="H30" s="7">
         <v>2952</v>
@@ -4751,13 +4745,13 @@
         <v>3187204</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>280</v>
+        <v>96</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M30" s="7">
         <v>5897</v>
@@ -4766,13 +4760,13 @@
         <v>6326798</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,7 +4822,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4850,7 +4844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829EB1E4-9F9F-4030-AA07-D94E0A00FF33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E667454-A25E-49E0-9C4C-5B7241F6DC45}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4867,7 +4861,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4980,7 +4974,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4995,7 +4989,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5025,28 +5019,28 @@
         <v>932</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -5055,13 +5049,13 @@
         <v>932</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,10 +5070,10 @@
         <v>418531</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>21</v>
@@ -5094,7 +5088,7 @@
         <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>23</v>
@@ -5106,10 +5100,10 @@
         <v>814286</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>21</v>
@@ -5201,7 +5195,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5216,7 +5210,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,7 +5231,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>167</v>
+        <v>297</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -5246,13 +5240,13 @@
         <v>5639</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>294</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>163</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>186</v>
+        <v>298</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -5261,13 +5255,13 @@
         <v>7971</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,7 +5279,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>176</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>21</v>
@@ -5297,13 +5291,13 @@
         <v>557905</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>301</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M10" s="7">
         <v>1138</v>
@@ -5312,13 +5306,13 @@
         <v>1146069</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,7 +5386,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5437,13 +5431,13 @@
         <v>13875</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>303</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -5452,13 +5446,13 @@
         <v>17172</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>306</v>
+        <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -5467,13 +5461,13 @@
         <v>31047</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,13 +5482,13 @@
         <v>655222</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H14" s="7">
         <v>648</v>
@@ -5503,13 +5497,13 @@
         <v>644214</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
         <v>1273</v>
@@ -5518,13 +5512,13 @@
         <v>1299436</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,7 +5592,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5628,7 +5622,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,13 +5637,13 @@
         <v>41939</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>320</v>
+        <v>130</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -5658,13 +5652,13 @@
         <v>36617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -5673,13 +5667,13 @@
         <v>78556</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,10 +5688,10 @@
         <v>604109</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>329</v>
+        <v>138</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>330</v>
@@ -5721,7 +5715,7 @@
         <v>1112</v>
       </c>
       <c r="N18" s="7">
-        <v>1216569</v>
+        <v>1216570</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>334</v>
@@ -5772,7 +5766,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>23</v>
@@ -5786,7 +5780,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -5804,7 +5798,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5834,7 +5828,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5873,13 @@
         <v>143871</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>91</v>
+        <v>343</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5894,13 @@
         <v>409435</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H22" s="7">
         <v>365</v>
@@ -5915,13 +5909,13 @@
         <v>421462</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M22" s="7">
         <v>727</v>
@@ -5930,13 +5924,13 @@
         <v>830896</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>99</v>
+        <v>352</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,7 +5986,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B24" s="5">
         <v>2</v>
@@ -6004,13 +5998,13 @@
         <v>5253</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -6019,13 +6013,13 @@
         <v>4120</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>355</v>
+        <v>248</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>33</v>
+        <v>357</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -6034,13 +6028,13 @@
         <v>9372</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>358</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,13 +6049,13 @@
         <v>189384</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H25" s="7">
         <v>187</v>
@@ -6070,13 +6064,13 @@
         <v>225274</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>255</v>
+        <v>365</v>
       </c>
       <c r="M25" s="7">
         <v>388</v>
@@ -6085,13 +6079,13 @@
         <v>414659</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,13 +6100,13 @@
         <v>396691</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H26" s="7">
         <v>464</v>
@@ -6121,13 +6115,13 @@
         <v>548537</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M26" s="7">
         <v>884</v>
@@ -6136,13 +6130,13 @@
         <v>945228</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,7 +6207,7 @@
         <v>29</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>28</v>
@@ -6225,10 +6219,10 @@
         <v>4120</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>48</v>
@@ -6243,7 +6237,7 @@
         <v>33</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>30</v>
@@ -6261,13 +6255,13 @@
         <v>316945</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H29" s="7">
         <v>312</v>
@@ -6276,13 +6270,13 @@
         <v>360090</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>382</v>
+        <v>276</v>
       </c>
       <c r="M29" s="7">
         <v>629</v>
@@ -6291,13 +6285,13 @@
         <v>677035</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6312,7 +6306,7 @@
         <v>3072152</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>386</v>
+        <v>281</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>387</v>
@@ -6404,7 +6398,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -6426,7 +6420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221A80E7-8627-48BC-B65B-7B56B4696154}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD96A25-20BA-4645-83F9-DA1AAB6FB3F7}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6777,7 +6771,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6792,7 +6786,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>401</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,7 +6822,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6843,7 +6837,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>401</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6861,7 +6855,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
@@ -6876,7 +6870,7 @@
         <v>21</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>23</v>
@@ -6891,7 +6885,7 @@
         <v>21</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>23</v>
@@ -6983,7 +6977,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -7034,7 +7028,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -7082,7 +7076,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -7189,7 +7183,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7204,7 +7198,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7240,7 +7234,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -7255,7 +7249,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,7 +7267,7 @@
         <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
@@ -7288,7 +7282,7 @@
         <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>23</v>
@@ -7297,13 +7291,13 @@
         <v>1806</v>
       </c>
       <c r="N18" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>23</v>
@@ -7348,7 +7342,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>23</v>
@@ -7362,7 +7356,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -7410,7 +7404,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7461,7 +7455,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7479,7 +7473,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>23</v>
@@ -7494,7 +7488,7 @@
         <v>21</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>23</v>
@@ -7509,7 +7503,7 @@
         <v>21</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>23</v>
@@ -7568,7 +7562,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B24" s="5">
         <v>2</v>
@@ -7601,7 +7595,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7616,7 +7610,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7652,7 +7646,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7667,7 +7661,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7679,13 +7673,13 @@
         <v>1028</v>
       </c>
       <c r="D26" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>23</v>
@@ -7700,7 +7694,7 @@
         <v>21</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>23</v>
@@ -7715,7 +7709,7 @@
         <v>21</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>23</v>
@@ -7730,7 +7724,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>23</v>
@@ -7792,7 +7786,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7807,7 +7801,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7822,7 +7816,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7843,7 +7837,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7858,7 +7852,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7873,7 +7867,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7891,7 +7885,7 @@
         <v>21</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>23</v>
@@ -7906,7 +7900,7 @@
         <v>21</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>23</v>
@@ -7915,13 +7909,13 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>23</v>
@@ -7966,7 +7960,7 @@
         <v>8743</v>
       </c>
       <c r="N31" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>23</v>
@@ -7980,7 +7974,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/cron_mort_index-Edad-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45185B11-3AA0-401C-A36B-2B6E87DDB998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD2CCAC4-9DFD-4222-A70D-BDEB4C987E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D61E3AA9-C100-4A5C-A33D-B6EEC7FF48A1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{23CC6D83-1F57-4414-BB33-C5E89FD079B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="420">
   <si>
     <t>Índice de cronicidad física en base a la mortalidad en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -89,1183 +89,1201 @@
     <t>0,2%</t>
   </si>
   <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la mortalidad en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la mortalidad en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
   </si>
   <si>
     <t>99,0%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la mortalidad en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
   </si>
   <si>
     <t>99,93%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la mortalidad en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la mortalidad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la mortalidad en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -1692,7 +1710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D63331E-A44A-4215-A930-F51118F861E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC528AA9-A5AE-4145-87A0-6E099128FC5E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2503,10 +2521,10 @@
         <v>72</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -2515,13 +2533,13 @@
         <v>43840</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2554,13 @@
         <v>496301</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H18" s="7">
         <v>480</v>
@@ -2551,13 +2569,13 @@
         <v>494648</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="M18" s="7">
         <v>942</v>
@@ -2566,13 +2584,13 @@
         <v>990949</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,7 +2646,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -2646,7 +2664,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2691,13 +2709,13 @@
         <v>44335</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H21" s="7">
         <v>48</v>
@@ -2706,13 +2724,13 @@
         <v>49657</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M21" s="7">
         <v>95</v>
@@ -2721,13 +2739,13 @@
         <v>93992</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,13 +2760,13 @@
         <v>342375</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>348</v>
@@ -2757,13 +2775,13 @@
         <v>354329</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>693</v>
@@ -2772,13 +2790,13 @@
         <v>696704</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,7 +2852,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5">
         <v>2</v>
@@ -2852,7 +2870,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2882,7 +2900,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2915,13 @@
         <v>99465</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H25" s="7">
         <v>144</v>
@@ -2912,13 +2930,13 @@
         <v>148398</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M25" s="7">
         <v>250</v>
@@ -2927,13 +2945,13 @@
         <v>247863</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2966,13 @@
         <v>403001</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H26" s="7">
         <v>517</v>
@@ -2963,13 +2981,13 @@
         <v>528444</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M26" s="7">
         <v>934</v>
@@ -2978,13 +2996,13 @@
         <v>931445</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,7 +3076,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3073,7 +3091,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3088,7 +3106,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3121,13 @@
         <v>185467</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H29" s="7">
         <v>224</v>
@@ -3118,13 +3136,13 @@
         <v>229249</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M29" s="7">
         <v>416</v>
@@ -3133,13 +3151,13 @@
         <v>414716</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,16 +3169,16 @@
         <v>3022</v>
       </c>
       <c r="D30" s="7">
-        <v>3091077</v>
+        <v>3091076</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H30" s="7">
         <v>3073</v>
@@ -3169,13 +3187,13 @@
         <v>3149949</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M30" s="7">
         <v>6095</v>
@@ -3184,13 +3202,13 @@
         <v>6241025</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,7 +3220,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>23</v>
@@ -3246,7 +3264,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3268,7 +3286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B21414-7DDD-45DF-9534-F35AC1EA4BB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8645508F-BB84-452D-A03B-98CCDCDB5F97}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3285,7 +3303,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3398,7 +3416,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3413,7 +3431,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3428,7 +3446,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3461,13 @@
         <v>2777</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3458,13 +3476,13 @@
         <v>2044</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3473,13 +3491,13 @@
         <v>4820</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,10 +3512,10 @@
         <v>451369</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>19</v>
@@ -3509,10 +3527,10 @@
         <v>428186</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>21</v>
@@ -3524,13 +3542,13 @@
         <v>879556</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,7 +3637,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3649,13 +3667,13 @@
         <v>10705</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -3664,13 +3682,13 @@
         <v>8759</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -3679,13 +3697,13 @@
         <v>19464</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3718,13 @@
         <v>676382</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H10" s="7">
         <v>563</v>
@@ -3715,13 +3733,13 @@
         <v>601496</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>1220</v>
@@ -3730,13 +3748,13 @@
         <v>1277878</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,7 +3828,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3834,13 +3852,13 @@
         <v>1030</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,10 +3876,10 @@
         <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -3870,13 +3888,13 @@
         <v>23312</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -3885,13 +3903,13 @@
         <v>30253</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3924,13 @@
         <v>673893</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H14" s="7">
         <v>646</v>
@@ -3936,13 +3954,13 @@
         <v>1361430</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,7 +4049,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4046,7 +4064,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4079,13 @@
         <v>31993</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -4076,13 +4094,13 @@
         <v>41313</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -4091,13 +4109,13 @@
         <v>73306</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4130,13 @@
         <v>582624</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H18" s="7">
         <v>504</v>
@@ -4127,13 +4145,13 @@
         <v>574886</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M18" s="7">
         <v>1022</v>
@@ -4142,13 +4160,13 @@
         <v>1157510</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,7 +4222,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -4216,13 +4234,13 @@
         <v>967</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4231,13 +4249,13 @@
         <v>2058</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4246,13 +4264,13 @@
         <v>3024</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>222</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4285,13 @@
         <v>56041</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H21" s="7">
         <v>63</v>
@@ -4282,13 +4300,13 @@
         <v>67059</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M21" s="7">
         <v>116</v>
@@ -4297,13 +4315,13 @@
         <v>123101</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4336,13 @@
         <v>372421</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H22" s="7">
         <v>341</v>
@@ -4333,13 +4351,13 @@
         <v>378683</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="M22" s="7">
         <v>680</v>
@@ -4348,13 +4366,13 @@
         <v>751104</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,7 +4428,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5">
         <v>2</v>
@@ -4422,13 +4440,13 @@
         <v>7111</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -4437,13 +4455,13 @@
         <v>5657</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -4452,13 +4470,13 @@
         <v>12768</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>249</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4491,13 @@
         <v>169620</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H25" s="7">
         <v>209</v>
@@ -4488,13 +4506,13 @@
         <v>220903</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M25" s="7">
         <v>362</v>
@@ -4503,13 +4521,13 @@
         <v>390524</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4542,13 @@
         <v>382906</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H26" s="7">
         <v>479</v>
@@ -4539,13 +4557,13 @@
         <v>516414</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M26" s="7">
         <v>824</v>
@@ -4554,13 +4572,13 @@
         <v>899320</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,10 +4649,10 @@
         <v>27</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -4643,13 +4661,13 @@
         <v>7715</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
@@ -4661,10 +4679,10 @@
         <v>30</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4697,13 @@
         <v>278078</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H29" s="7">
         <v>338</v>
@@ -4694,13 +4712,13 @@
         <v>363390</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M29" s="7">
         <v>594</v>
@@ -4709,13 +4727,13 @@
         <v>641467</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4748,13 @@
         <v>3139595</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H30" s="7">
         <v>2952</v>
@@ -4745,13 +4763,13 @@
         <v>3187204</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>96</v>
+        <v>281</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M30" s="7">
         <v>5897</v>
@@ -4760,13 +4778,13 @@
         <v>6326798</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,7 +4840,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4844,7 +4862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E667454-A25E-49E0-9C4C-5B7241F6DC45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCBFC3D-F297-4981-8694-0504348AE9F3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4861,7 +4879,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4974,7 +4992,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4989,7 +5007,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5019,13 +5037,13 @@
         <v>932</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5040,7 +5058,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -5055,7 +5073,7 @@
         <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,10 +5088,10 @@
         <v>418531</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>21</v>
@@ -5088,7 +5106,7 @@
         <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>23</v>
@@ -5100,10 +5118,10 @@
         <v>814286</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>21</v>
@@ -5180,7 +5198,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5195,7 +5213,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5210,7 +5228,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,7 +5249,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -5240,13 +5258,13 @@
         <v>5639</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>294</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -5255,13 +5273,13 @@
         <v>7971</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,7 +5297,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>21</v>
@@ -5291,13 +5309,13 @@
         <v>557905</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
         <v>1138</v>
@@ -5306,13 +5324,13 @@
         <v>1146069</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,7 +5404,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5431,13 +5449,13 @@
         <v>13875</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -5446,13 +5464,13 @@
         <v>17172</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -5461,13 +5479,13 @@
         <v>31047</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>311</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>312</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,13 +5500,13 @@
         <v>655222</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H14" s="7">
         <v>648</v>
@@ -5497,13 +5515,13 @@
         <v>644214</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M14" s="7">
         <v>1273</v>
@@ -5512,13 +5530,13 @@
         <v>1299436</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>320</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,7 +5610,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5622,7 +5640,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,13 +5655,13 @@
         <v>41939</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>130</v>
+        <v>319</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -5652,13 +5670,13 @@
         <v>36617</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -5667,13 +5685,13 @@
         <v>78556</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,10 +5706,10 @@
         <v>604109</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>138</v>
+        <v>328</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>330</v>
@@ -5715,7 +5733,7 @@
         <v>1112</v>
       </c>
       <c r="N18" s="7">
-        <v>1216570</v>
+        <v>1216569</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>334</v>
@@ -5766,7 +5784,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>23</v>
@@ -5780,7 +5798,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -5798,7 +5816,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5813,7 +5831,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>53</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5828,7 +5846,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,7 +6004,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5">
         <v>2</v>
@@ -6001,7 +6019,7 @@
         <v>355</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>356</v>
@@ -6013,13 +6031,13 @@
         <v>4120</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -6028,13 +6046,13 @@
         <v>9372</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6219,10 +6237,10 @@
         <v>4120</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>48</v>
@@ -6237,7 +6255,7 @@
         <v>33</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>30</v>
@@ -6276,7 +6294,7 @@
         <v>383</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>276</v>
+        <v>384</v>
       </c>
       <c r="M29" s="7">
         <v>629</v>
@@ -6285,7 +6303,7 @@
         <v>677035</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>384</v>
+        <v>95</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>385</v>
@@ -6306,13 +6324,13 @@
         <v>3072152</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>281</v>
+        <v>387</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H30" s="7">
         <v>3022</v>
@@ -6321,13 +6339,13 @@
         <v>3180332</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M30" s="7">
         <v>5930</v>
@@ -6336,13 +6354,13 @@
         <v>6252485</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,7 +6416,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -6420,7 +6438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD96A25-20BA-4645-83F9-DA1AAB6FB3F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E80481-AF27-4017-9918-24F12233B5F8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6437,7 +6455,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6550,7 +6568,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>397</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6565,7 +6583,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6580,7 +6598,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,7 +6619,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>56</v>
+        <v>397</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6616,7 +6634,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6631,7 +6649,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,7 +6667,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>66</v>
+        <v>400</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>23</v>
@@ -6664,7 +6682,7 @@
         <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>23</v>
@@ -6679,7 +6697,7 @@
         <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>23</v>
@@ -6756,7 +6774,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6771,7 +6789,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>270</v>
+        <v>404</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6786,7 +6804,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6807,7 +6825,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6822,7 +6840,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>270</v>
+        <v>404</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6837,7 +6855,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>245</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,7 +6873,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
@@ -6870,7 +6888,7 @@
         <v>21</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>23</v>
@@ -6885,7 +6903,7 @@
         <v>21</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>23</v>
@@ -6977,7 +6995,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -7028,7 +7046,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -7076,7 +7094,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -7183,7 +7201,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7234,7 +7252,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -7267,7 +7285,7 @@
         <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>23</v>
@@ -7282,7 +7300,7 @@
         <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>23</v>
@@ -7297,7 +7315,7 @@
         <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>23</v>
@@ -7356,7 +7374,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -7404,7 +7422,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7455,7 +7473,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7473,7 +7491,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>23</v>
@@ -7488,7 +7506,7 @@
         <v>21</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>23</v>
@@ -7503,7 +7521,7 @@
         <v>21</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>23</v>
@@ -7562,7 +7580,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5">
         <v>2</v>
@@ -7610,7 +7628,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7661,7 +7679,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7679,7 +7697,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>23</v>
@@ -7694,7 +7712,7 @@
         <v>21</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>23</v>
@@ -7709,7 +7727,7 @@
         <v>21</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>23</v>
@@ -7786,7 +7804,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7801,7 +7819,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7816,7 +7834,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7837,7 +7855,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7852,7 +7870,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7867,7 +7885,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7885,7 +7903,7 @@
         <v>21</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>23</v>
@@ -7900,7 +7918,7 @@
         <v>21</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>23</v>
@@ -7915,7 +7933,7 @@
         <v>21</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>23</v>
@@ -7974,7 +7992,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/cron_mort_index-Edad-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,47 +671,47 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
@@ -739,27 +739,27 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,03; 0,16</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,02</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,02</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,03; 0,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,04; 0,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,47 +811,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>0,01</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 0,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 0,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 0,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 0,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 0,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 0,1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 0,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 0,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 0,16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 0,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 0,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 0,31</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1361,57 +1361,57 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>0,33</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,32</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,32</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,23</t>
+          <t>0,15; 0,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,37</t>
+          <t>0,29; 0,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,38</t>
+          <t>0,25; 0,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,42; 0,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,25</t>
+          <t>0,19; 0,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,35</t>
+          <t>0,24; 0,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,34</t>
+          <t>0,23; 0,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 0,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,24</t>
+          <t>0,18; 0,24</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,35</t>
+          <t>0,27; 0,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,35</t>
+          <t>0,25; 0,32</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 0,43</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,15; 0,26</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 0,38</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 0,45</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 0,8</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 0,27</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 0,39</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 0,37</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 0,69</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 0,25</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 0,36</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 0,39</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 0,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0,05; 0,06</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0,08; 0,1</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0,09; 0,11</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 0,25</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0,06; 0,08</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>0,1; 0,12</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>0,09; 0,12</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 0,27</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0,06; 0,07</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>0,09; 0,1</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>0,09; 0,11</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 0,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/cron_mort_index-Edad-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Edad-trans_orig.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,16</t>
+          <t>0,03; 0,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,02</t>
+          <t>0,0; 0,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,1</t>
+          <t>0,03; 0,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,49</t>
+          <t>0,05; 0,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,39</t>
+          <t>0,07; 0,35</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,04</t>
+          <t>0,01; 0,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,07</t>
+          <t>0,05; 0,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,18</t>
+          <t>0,1; 0,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,18</t>
+          <t>0,12; 0,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,14</t>
+          <t>0,1; 0,15</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,17</t>
+          <t>0,13; 0,17</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,31</t>
+          <t>0,25; 0,3</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,24</t>
+          <t>0,16; 0,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 0,54</t>
+          <t>0,42; 0,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,27</t>
+          <t>0,18; 0,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,34</t>
+          <t>0,24; 0,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,38</t>
+          <t>0,11; 0,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,43</t>
+          <t>0,19; 0,43</t>
         </is>
       </c>
     </row>
@@ -1569,22 +1569,22 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,38</t>
+          <t>0,25; 0,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,45</t>
+          <t>0,34; 0,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,64; 0,8</t>
+          <t>0,64; 0,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,27</t>
+          <t>0,17; 0,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,36</t>
+          <t>0,29; 0,37</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,39</t>
+          <t>0,31; 0,39</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 0,72</t>
+          <t>0,62; 0,71</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,27</t>
+          <t>0,18; 0,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
